--- a/LH_REVIEWS/LH_TC_USERHOME_REVIEWS.xlsx
+++ b/LH_REVIEWS/LH_TC_USERHOME_REVIEWS.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\testing\iti\6_QA\workshop\TCS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\halae\OneDrive\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView showHorizontalScroll="0" showVerticalScroll="0" xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650" activeTab="1"/>
+    <workbookView showHorizontalScroll="0" showVerticalScroll="0" xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620"/>
   </bookViews>
   <sheets>
     <sheet name="LH-TC-REGISTERATION-Reviews" sheetId="2" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="36">
   <si>
     <t>Author</t>
   </si>
@@ -87,9 +87,6 @@
     <t>Open</t>
   </si>
   <si>
-    <t>review  the user home feature test cases</t>
-  </si>
-  <si>
     <t>LH_TC_USERHOME_REVIEW_001</t>
   </si>
   <si>
@@ -114,15 +111,9 @@
     <t>LH-TC-USERHOME-007</t>
   </si>
   <si>
-    <t>V2.1</t>
-  </si>
-  <si>
     <t>the title is vegu "Verify no posts are listed in user home page" if what</t>
   </si>
   <si>
-    <t>you have to mention the case that there is no posts will be not shown like ""</t>
-  </si>
-  <si>
     <t>you have to mention the case that there is no posts will be not shown like "Verify no posts are listed in user home page if user not follow any categorey"</t>
   </si>
   <si>
@@ -136,6 +127,21 @@
   </si>
   <si>
     <t>please modify the formate the font size and type</t>
+  </si>
+  <si>
+    <t>Hala Eldaly</t>
+  </si>
+  <si>
+    <t>Review  the user home feature test cases</t>
+  </si>
+  <si>
+    <t>v1.1</t>
+  </si>
+  <si>
+    <t>Closed</t>
+  </si>
+  <si>
+    <t>Close owner status</t>
   </si>
 </sst>
 </file>
@@ -266,7 +272,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -317,6 +323,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1066,8 +1075,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J9"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="69" zoomScaleNormal="69" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="69" zoomScaleNormal="69" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="21" x14ac:dyDescent="0.35"/>
@@ -1122,28 +1131,28 @@
         <v>14</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D2" s="8" t="s">
         <v>15</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F2" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="G2" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="H2" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="H2" s="8" t="s">
-        <v>23</v>
-      </c>
       <c r="I2" s="8" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="J2" s="8" t="s">
         <v>16</v>
@@ -1152,28 +1161,28 @@
     <row r="3" spans="1:10" s="10" customFormat="1" ht="105" x14ac:dyDescent="0.25">
       <c r="A3" s="9"/>
       <c r="B3" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="8" t="s">
         <v>24</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>25</v>
       </c>
       <c r="D3" s="8" t="s">
         <v>15</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="H3" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I3" s="8" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="J3" s="8" t="s">
         <v>16</v>
@@ -1182,30 +1191,30 @@
     <row r="4" spans="1:10" ht="72" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="9"/>
       <c r="B4" s="8" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D4" s="8" t="s">
         <v>15</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H4" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I4" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="J4" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="J4" s="19" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1292,10 +1301,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1328,9 +1337,23 @@
         <v>15</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="D2" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D3" s="4" t="s">
         <v>14</v>
       </c>
     </row>

--- a/LH_REVIEWS/LH_TC_USERHOME_REVIEWS.xlsx
+++ b/LH_REVIEWS/LH_TC_USERHOME_REVIEWS.xlsx
@@ -5,14 +5,14 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\halae\OneDrive\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\testing\iti\6_QA\workshop\TCS\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView showHorizontalScroll="0" showVerticalScroll="0" xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620"/>
+    <workbookView showHorizontalScroll="0" showVerticalScroll="0" xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="LH-TC-REGISTERATION-Reviews" sheetId="2" r:id="rId1"/>
+    <sheet name="LH-TC-USERHOME-Reviews" sheetId="2" r:id="rId1"/>
     <sheet name="Version History" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="40">
   <si>
     <t>Author</t>
   </si>
@@ -78,6 +78,12 @@
     <t>Reviewed Entity</t>
   </si>
   <si>
+    <t>Closed</t>
+  </si>
+  <si>
+    <t>v1.1</t>
+  </si>
+  <si>
     <t>13/5/2025</t>
   </si>
   <si>
@@ -87,6 +93,9 @@
     <t>Open</t>
   </si>
   <si>
+    <t>review  the user home feature test cases</t>
+  </si>
+  <si>
     <t>LH_TC_USERHOME_REVIEW_001</t>
   </si>
   <si>
@@ -129,19 +138,22 @@
     <t>please modify the formate the font size and type</t>
   </si>
   <si>
-    <t>Hala Eldaly</t>
-  </si>
-  <si>
-    <t>Review  the user home feature test cases</t>
-  </si>
-  <si>
-    <t>v1.1</t>
-  </si>
-  <si>
-    <t>Closed</t>
-  </si>
-  <si>
-    <t>Close owner status</t>
+    <t>LH_TC_USERHOME_REVIEW_004</t>
+  </si>
+  <si>
+    <t>v2.1</t>
+  </si>
+  <si>
+    <t>ia all data you mention that there is a correct password but this password doesn't match acceptance criteria of the password</t>
+  </si>
+  <si>
+    <t>so please make the password valid something like that "CorrectPassword@123"</t>
+  </si>
+  <si>
+    <t>14/5/2025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">close the previous status and add more comments </t>
   </si>
 </sst>
 </file>
@@ -272,7 +284,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -323,9 +335,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -765,7 +774,7 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:D2" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:D3" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4">
   <tableColumns count="4">
     <tableColumn id="1" name="Version Number" dataDxfId="3"/>
     <tableColumn id="2" name="Author" dataDxfId="2"/>
@@ -1075,8 +1084,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="69" zoomScaleNormal="69" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView topLeftCell="B1" zoomScale="69" zoomScaleNormal="69" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="21" x14ac:dyDescent="0.35"/>
@@ -1128,107 +1137,125 @@
     </row>
     <row r="2" spans="1:10" s="10" customFormat="1" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="I2" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="E2" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="F2" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="G2" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="H2" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="I2" s="8" t="s">
-        <v>34</v>
-      </c>
       <c r="J2" s="8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:10" s="10" customFormat="1" ht="105" x14ac:dyDescent="0.25">
       <c r="A3" s="9"/>
       <c r="B3" s="8" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F3" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="H3" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="G3" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="H3" s="8" t="s">
-        <v>22</v>
-      </c>
       <c r="I3" s="8" t="s">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="J3" s="8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="72" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="9"/>
       <c r="B4" s="8" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E4" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="H4" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="I4" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="J4" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="105" x14ac:dyDescent="0.35">
+      <c r="A5" s="9"/>
+      <c r="B5" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="H5" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="I5" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="F4" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H4" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="I4" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="J4" s="19" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A5" s="9"/>
-      <c r="B5" s="8"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="8"/>
-      <c r="J5" s="7"/>
+      <c r="J5" s="8" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6" s="9"/>
@@ -1303,8 +1330,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1334,27 +1361,27 @@
         <v>2</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>33</v>
-      </c>
       <c r="B3" s="3" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>14</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/LH_REVIEWS/LH_TC_USERHOME_REVIEWS.xlsx
+++ b/LH_REVIEWS/LH_TC_USERHOME_REVIEWS.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="41">
   <si>
     <t>Author</t>
   </si>
@@ -90,7 +90,7 @@
     <t>Ahmed Abuzaid</t>
   </si>
   <si>
-    <t>Open</t>
+    <t>v1.2</t>
   </si>
   <si>
     <t>review  the user home feature test cases</t>
@@ -154,6 +154,9 @@
   </si>
   <si>
     <t xml:space="preserve">close the previous status and add more comments </t>
+  </si>
+  <si>
+    <t xml:space="preserve">close user home review </t>
   </si>
 </sst>
 </file>
@@ -774,7 +777,7 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:D3" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:D4" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4">
   <tableColumns count="4">
     <tableColumn id="1" name="Version Number" dataDxfId="3"/>
     <tableColumn id="2" name="Author" dataDxfId="2"/>
@@ -1085,7 +1088,7 @@
   <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView topLeftCell="B1" zoomScale="69" zoomScaleNormal="69" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="21" x14ac:dyDescent="0.35"/>
@@ -1251,10 +1254,10 @@
         <v>25</v>
       </c>
       <c r="I5" s="8" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="J5" s="8" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.35">
@@ -1328,10 +1331,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1384,6 +1387,20 @@
         <v>38</v>
       </c>
     </row>
+    <row r="4" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
